--- a/file_counts.xlsx
+++ b/file_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>step 1</t>
+          <t>step 01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>step 2</t>
+          <t>step 02</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>step 3</t>
+          <t>step 03</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,17 +506,113 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>step 4</t>
+          <t>step 04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>step 05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>step 06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>step 07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>step 08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>step 09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>step 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
